--- a/02-intermediate/195-create.xlsx
+++ b/02-intermediate/195-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>DATE function</t>
   </si>
@@ -267,36 +267,6 @@
     <t>5/14/1874</t>
   </si>
   <si>
-    <t>`=time+DAY</t>
-  </si>
-  <si>
-    <t>`=time+HOUR</t>
-  </si>
-  <si>
-    <t>`=time+MINUTE</t>
-  </si>
-  <si>
-    <t>`=time+SECOND</t>
-  </si>
-  <si>
-    <t>`=time+WEEKDAY</t>
-  </si>
-  <si>
-    <t>`=time+YEAR</t>
-  </si>
-  <si>
-    <t>`=time+MONTH</t>
-  </si>
-  <si>
-    <t>`=time+WEEKNUM</t>
-  </si>
-  <si>
-    <t>time2</t>
-  </si>
-  <si>
-    <t>time1</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -310,18 +280,32 @@
   </si>
   <si>
     <t>rank</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="dddd\,\ mmmm\ dd\,\ yyyy\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +322,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -365,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,24 +391,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,81 +1105,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="18"/>
-    <col min="2" max="2" width="17.86328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="19" style="18" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="18"/>
-    <col min="11" max="11" width="16.06640625" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="18"/>
+    <col min="1" max="1" width="9.06640625" style="14"/>
+    <col min="2" max="2" width="17.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19" style="14" customWidth="1"/>
+    <col min="8" max="10" width="9.06640625" style="14"/>
+    <col min="11" max="11" width="16.06640625" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="14"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="18">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>2.4</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>2.4780000000000002</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>2.4789998999999998</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>2.4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>2.4780000000000002</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>2.4789998999999998</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>-1</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>39447</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <f>B8+B7</f>
         <v>39448</v>
       </c>
@@ -1191,13 +1206,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1210,10 +1225,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1431,11 +1446,11 @@
     <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D7" s="4">
         <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
+        <v>43003.424132986111</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">TODAY()</f>
-        <v>43002</v>
+        <v>43003</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.45">
@@ -1446,11 +1461,11 @@
     <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D9" s="4">
         <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
+        <v>43003.424132986111</v>
       </c>
       <c r="E9" s="5">
         <f ca="1">TODAY()</f>
-        <v>43002</v>
+        <v>43003</v>
       </c>
     </row>
   </sheetData>
@@ -1493,11 +1508,11 @@
     <row r="7" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D7" s="4">
         <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
+        <v>43003.424132986111</v>
       </c>
       <c r="E7" s="5">
         <f ca="1">TODAY()</f>
-        <v>43002</v>
+        <v>43003</v>
       </c>
       <c r="F7" s="5">
         <f>DATE(2017,9,24)</f>
@@ -1518,7 +1533,7 @@
         <f>DATE(2019,10,31)</f>
         <v>43769</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <f>TIME(22,55,59)</f>
         <v>0.95554398148148145</v>
       </c>
@@ -1535,215 +1550,217 @@
   </sheetPr>
   <dimension ref="C6:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.265625" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.53125" style="3" customWidth="1"/>
-    <col min="7" max="16" width="9.06640625" style="3"/>
+    <col min="1" max="2" width="9.06640625" style="18"/>
+    <col min="3" max="3" width="10.265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" style="25" customWidth="1"/>
+    <col min="7" max="16" width="9.06640625" style="25"/>
+    <col min="17" max="16384" width="9.06640625" style="18"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D7" s="4">
+      <c r="D7" s="20">
         <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="E7" s="5">
+        <v>43003.424132986111</v>
+      </c>
+      <c r="E7" s="21">
         <f ca="1">TODAY()</f>
-        <v>43002</v>
-      </c>
-      <c r="F7" s="5">
+        <v>43003</v>
+      </c>
+      <c r="F7" s="21">
         <f>DATE(2017,9,24)</f>
         <v>43002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="22">
         <f>TIME(14,34,54)</f>
         <v>0.6075694444444445</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="24">
         <f ca="1">DAY(D7)</f>
-        <v>24</v>
-      </c>
-      <c r="E8" s="9">
+        <v>25</v>
+      </c>
+      <c r="E8" s="24">
         <f t="shared" ref="E8:G8" ca="1" si="0">DAY(E7)</f>
-        <v>24</v>
-      </c>
-      <c r="F8" s="9">
+        <v>25</v>
+      </c>
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="25">
         <f ca="1">HOUR(D7)</f>
         <v>10</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="25">
         <f t="shared" ref="E9:G9" ca="1" si="1">HOUR(E7)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="25">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="25">
         <f ca="1">MINUTE(D7)</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="25">
         <f t="shared" ref="E10:G10" ca="1" si="2">MINUTE(E7)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="25">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="25">
         <f ca="1">SECOND(D7)</f>
-        <v>48</v>
-      </c>
-      <c r="E11" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11" s="25">
         <f t="shared" ref="E11:G11" ca="1" si="3">SECOND(E7)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="25">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="25">
         <f ca="1">WEEKDAY(D7)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25">
         <f t="shared" ref="E12:G12" ca="1" si="4">WEEKDAY(E7)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="25">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="25">
         <f ca="1">YEAR(D7)</f>
         <v>2017</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="25">
         <f t="shared" ref="E13:G13" ca="1" si="5">YEAR(E7)</f>
         <v>2017</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="25">
         <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="25">
         <f t="shared" si="5"/>
         <v>1900</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="25">
         <f ca="1">MONTH(D7)</f>
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="25">
         <f t="shared" ref="E14:G14" ca="1" si="6">MONTH(E7)</f>
         <v>9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="25">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="25">
         <f ca="1">WEEKNUM(D7,1)</f>
         <v>39</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="25">
         <f t="shared" ref="E15:G15" ca="1" si="7">WEEKNUM(E7,1)</f>
         <v>39</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="25">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1791,7 +1808,7 @@
       </c>
       <c r="E5" s="10">
         <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
+        <v>43003.424132986111</v>
       </c>
       <c r="K5" t="s">
         <v>67</v>
@@ -1830,7 +1847,7 @@
       </c>
       <c r="D9">
         <f ca="1">_xlfn.DAYS(E5,D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1845,7 +1862,7 @@
       </c>
       <c r="D10">
         <f ca="1">DAYS360(E5,D5)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.45">
@@ -1854,7 +1871,7 @@
       </c>
       <c r="D11">
         <f ca="1">NETWORKDAYS(D5,E5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.45">
@@ -1863,7 +1880,7 @@
       </c>
       <c r="D12">
         <f ca="1">YEARFRAC(D5,E5, 3)</f>
-        <v>0</v>
+        <v>2.7397260273972603E-3</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.45">
@@ -1872,7 +1889,7 @@
       </c>
       <c r="D13">
         <f ca="1">E5-D5</f>
-        <v>1.8612268468132243E-3</v>
+        <v>1.0025241898110835</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.45">
@@ -1881,7 +1898,7 @@
       </c>
       <c r="D14" s="9">
         <f ca="1">DAY(D13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.45">
@@ -1899,7 +1916,7 @@
       </c>
       <c r="D16" s="3">
         <f ca="1">MINUTE(D13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
@@ -1908,7 +1925,7 @@
       </c>
       <c r="D17" s="3">
         <f ca="1">SECOND(D13)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
@@ -1917,7 +1934,7 @@
       </c>
       <c r="D18" s="3">
         <f ca="1">WEEKDAY(D13)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.45">
@@ -1944,7 +1961,7 @@
       </c>
       <c r="D21" s="3">
         <f ca="1">WEEKNUM(D13,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1954,295 +1971,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F31"/>
+  <dimension ref="C5:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.796875" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" customWidth="1"/>
-    <col min="6" max="6" width="13.9296875" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D5" s="10">
-        <v>43002.382210648146</v>
-      </c>
-      <c r="E5" s="10">
-        <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
-      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="30">
+        <v>43003.422165856478</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+      <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D7">
-        <f ca="1">EDATE(E5,18)</f>
-        <v>43548</v>
-      </c>
-      <c r="E7" s="10">
-        <f ca="1">EDATE(E5,18)</f>
-        <v>43548</v>
-      </c>
+      <c r="D7" s="27">
+        <v>43094</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D8">
-        <f ca="1">EOMONTH(E5,18)</f>
-        <v>43555</v>
-      </c>
-      <c r="E8" s="10">
-        <f ca="1">EOMONTH(E5,18)</f>
-        <v>43555</v>
-      </c>
+      <c r="D8" s="27">
+        <v>43100</v>
+      </c>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E9" s="10"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D13" s="10">
-        <f ca="1">NOW()</f>
-        <v>43002.423470023146</v>
+      <c r="C13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>43004.422165856478</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9">
-        <f ca="1">DAY(D13)</f>
-        <v>24</v>
+      <c r="C14" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="30">
+        <v>43003.463832523143</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3">
-        <f ca="1">HOUR(D13)</f>
-        <v>10</v>
+      <c r="C15" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="31">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E15" s="30">
+        <v>43003.422860300925</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3">
-        <f ca="1">MINUTE(D13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3">
-        <f ca="1">SECOND(D13)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3">
-        <f ca="1">WEEKDAY(D13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3">
-        <f ca="1">YEAR(D13)</f>
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3">
-        <f ca="1">MONTH(D13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="3">
-        <f ca="1">WEEKNUM(D13,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D23" s="14" t="s">
+      <c r="C16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" ref="D24:D31" ca="1" si="0">$E$5+D14</f>
-        <v>43026.423470023146</v>
-      </c>
-      <c r="E24" s="16">
-        <f ca="1">$D$13</f>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F24" s="17">
-        <f ca="1">D24-E24</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43012.423470023146</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" ref="E25:E31" ca="1" si="1">$D$13</f>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F25" s="17">
-        <f t="shared" ref="F25:F31" ca="1" si="2">D25-E25</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43011.423470023146</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F26" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C27" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43050.423470023146</v>
-      </c>
-      <c r="E27" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F27" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43003.423470023146</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F28" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>45019.423470023146</v>
-      </c>
-      <c r="E29" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F29" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43011.423470023146</v>
-      </c>
-      <c r="E30" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F30" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>43041.423470023146</v>
-      </c>
-      <c r="E31" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>43002.423470023146</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+      <c r="D16" s="31">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="E16" s="30">
+        <v>43003.422177430555</v>
       </c>
     </row>
   </sheetData>
